--- a/team_specific_matrix/Lake Erie_B.xlsx
+++ b/team_specific_matrix/Lake Erie_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.875</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3333333333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.06666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="R8">
         <v>0.2</v>
       </c>
       <c r="S8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.125</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.25</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R9">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S9">
-        <v>0.25</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1186440677966102</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05084745762711865</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.03389830508474576</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1694915254237288</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03389830508474576</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2033898305084746</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="R10">
-        <v>0.05084745762711865</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="S10">
-        <v>0.3389830508474576</v>
+        <v>0.3130434782608696</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K11">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1666666666666667</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2222222222222222</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J16">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2222222222222222</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I17">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J17">
-        <v>0.625</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0625</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1666666666666667</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I18">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02439024390243903</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2439024390243902</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="I19">
-        <v>0.1219512195121951</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="J19">
-        <v>0.4390243902439024</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="K19">
-        <v>0.04878048780487805</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07317073170731707</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.04878048780487805</v>
+        <v>0.1046511627906977</v>
       </c>
     </row>
   </sheetData>
